--- a/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Instances_Fold_22.xlsx
+++ b/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Instances_Fold_22.xlsx
@@ -477,7 +477,7 @@
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>

--- a/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Instances_Fold_22.xlsx
+++ b/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Instances_Fold_22.xlsx
@@ -477,7 +477,7 @@
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -488,7 +488,7 @@
         <v>0.85</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
